--- a/public/files/documents/krossovki-opt-price.xlsx
+++ b/public/files/documents/krossovki-opt-price.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\Projects\кроссовки опт\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\genlid\public\files\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t>Фото</t>
   </si>
@@ -214,12 +214,21 @@
   <si>
     <t>Качество фабричное А+, копии, идеальное 1:1</t>
   </si>
+  <si>
+    <t>+7 929 116 85 65 Павел</t>
+  </si>
+  <si>
+    <t>info@genlid.com</t>
+  </si>
+  <si>
+    <t>http://krossovkiopt.genlid.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,8 +279,25 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +307,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,10 +341,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -343,8 +376,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5264,7 +5304,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5294,6 +5334,9 @@
       <c r="D1" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="E1" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
@@ -5318,8 +5361,8 @@
       <c r="D2" s="10">
         <v>2269</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>62</v>
+      <c r="E2" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="F2" s="10">
         <v>53</v>
@@ -5343,8 +5386,8 @@
       <c r="D3" s="10">
         <v>2675</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>61</v>
+      <c r="E3" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="F3" s="10">
         <v>54</v>
@@ -5369,7 +5412,7 @@
         <v>2675</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="10">
         <v>55</v>
@@ -5393,7 +5436,9 @@
       <c r="D5" s="10">
         <v>2559</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="F5" s="10">
         <v>56</v>
       </c>
@@ -5416,7 +5461,9 @@
       <c r="D6" s="10">
         <v>2559</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="F6" s="10">
         <v>57</v>
       </c>
@@ -6556,9 +6603,13 @@
     <row r="82" ht="89.25" customHeight="1"/>
     <row r="83" ht="72.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E1" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
